--- a/Multiknapsack/results/fixed_recourse/multicut/M100_N200_T0_a50_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M100_N200_T0_a50_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2842.296041017097</v>
+        <v>-1446.9652710430485</v>
       </c>
       <c r="C2">
-        <v>8.893315012</v>
+        <v>815.022106596</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H2">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2822.6466590257896</v>
+        <v>-1446.960829055565</v>
       </c>
       <c r="C3">
-        <v>0.42248375</v>
+        <v>729.902236155</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H3">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-2833.9428537797485</v>
+        <v>-1447.5007260736406</v>
       </c>
       <c r="C4">
-        <v>0.428450975</v>
+        <v>529.191510378</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -541,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H4">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-2831.439230886428</v>
+        <v>-1443.4704065646756</v>
       </c>
       <c r="C5">
-        <v>0.337820043</v>
+        <v>892.866737132</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H5">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-2827.7027437026527</v>
+        <v>-1452.0331302759485</v>
       </c>
       <c r="C6">
-        <v>0.355170302</v>
+        <v>981.336032032</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H6">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-2814.6468056472245</v>
+        <v>-1434.9010419212857</v>
       </c>
       <c r="C7">
-        <v>0.267636084</v>
+        <v>3607.487382638</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H7">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-2835.7587958407307</v>
+        <v>-1448.9218603408262</v>
       </c>
       <c r="C8">
-        <v>0.251366015</v>
+        <v>1000.859303818</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H8">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I8">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-2809.4179589270043</v>
+        <v>-1434.8107321419998</v>
       </c>
       <c r="C9">
-        <v>0.247937133</v>
+        <v>832.827194559</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G9">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H9">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-2818.3868086468374</v>
+        <v>-1443.5569295182886</v>
       </c>
       <c r="C10">
-        <v>0.219579787</v>
+        <v>631.220203737</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H10">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-2843.7879645900193</v>
+        <v>-1453.0961120243596</v>
       </c>
       <c r="C11">
-        <v>0.251598398</v>
+        <v>1049.538362124</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -744,16 +744,16 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H11">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.06143589046435547</v>
+        <v>0.10140063171020508</v>
       </c>
       <c r="E2">
-        <v>52.42945</v>
+        <v>166.29438</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2818.3868086468374</v>
+        <v>-1443.5569295182886</v>
       </c>
       <c r="C3">
-        <v>1.6135022683589025e-14</v>
+        <v>0.07613152052995122</v>
       </c>
       <c r="D3">
-        <v>0.08034655947045899</v>
+        <v>623.0101736463762</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,10 +861,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.06942467969274903</v>
+        <v>0.0684218231298828</v>
       </c>
       <c r="E2">
-        <v>48.24828</v>
+        <v>161.68958</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2843.7879645900193</v>
+        <v>-1453.0961120243596</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09219493660558657</v>
       </c>
       <c r="D3">
-        <v>0.10342791788610839</v>
+        <v>1041.5924777124642</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,10 +925,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.9553308064083252</v>
+        <v>0.9683720088411866</v>
       </c>
       <c r="E2">
-        <v>49.0337</v>
+        <v>163.46956</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2842.296041017097</v>
+        <v>-1446.9652710430485</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08898265372079207</v>
       </c>
       <c r="D3">
-        <v>0.1588413431134033</v>
+        <v>799.7161838207189</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,10 +989,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.07969499934509278</v>
+        <v>0.1123262791986084</v>
       </c>
       <c r="E2">
-        <v>49.57863</v>
+        <v>164.5962</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2822.6466590257896</v>
+        <v>-1446.960829055565</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.01993502586008528</v>
       </c>
       <c r="D3">
-        <v>0.15395683932751464</v>
+        <v>720.8830310219234</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.11908833293933105</v>
+        <v>0.06738471238122559</v>
       </c>
       <c r="E2">
-        <v>49.57326</v>
+        <v>163.91369</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2833.9428537797485</v>
+        <v>-1447.5007260736406</v>
       </c>
       <c r="C3">
-        <v>1.604645451053935e-14</v>
+        <v>0.09715401022847754</v>
       </c>
       <c r="D3">
-        <v>0.17019485224694825</v>
+        <v>523.0575813672768</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.07456426670043945</v>
+        <v>0.08500793670581054</v>
       </c>
       <c r="E2">
-        <v>50.69303</v>
+        <v>165.41896</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2831.439230886428</v>
+        <v>-1443.4704065646756</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08205533729814819</v>
       </c>
       <c r="D3">
-        <v>0.12134819810559082</v>
+        <v>884.9945875280558</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.08091915137145995</v>
+        <v>0.1028845121800537</v>
       </c>
       <c r="E2">
-        <v>46.47709</v>
+        <v>166.67449</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2827.7027437026527</v>
+        <v>-1452.0331302759485</v>
       </c>
       <c r="C3">
-        <v>3.2163730922507955e-14</v>
+        <v>0.09787459685418172</v>
       </c>
       <c r="D3">
-        <v>0.133530544817749</v>
+        <v>974.975940314295</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.07558304198779296</v>
+        <v>0.1104670791965332</v>
       </c>
       <c r="E2">
-        <v>52.18193</v>
+        <v>164.15669</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2814.6468056472245</v>
+        <v>-1434.9010419212857</v>
       </c>
       <c r="C3">
-        <v>1.6156462330337726e-14</v>
+        <v>0.14142294036018835</v>
       </c>
       <c r="D3">
-        <v>0.09016014739172364</v>
+        <v>3600.6305427022016</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.057683384442504884</v>
+        <v>0.06842382542602539</v>
       </c>
       <c r="E2">
-        <v>47.21873</v>
+        <v>164.13388</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2835.7587958407307</v>
+        <v>-1448.9218603408262</v>
       </c>
       <c r="C3">
-        <v>3.2072357603434815e-14</v>
+        <v>0.07599605688155607</v>
       </c>
       <c r="D3">
-        <v>0.10319577605200195</v>
+        <v>994.9392517533083</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,10 +1373,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.07391697671569825</v>
+        <v>0.10054509087524414</v>
       </c>
       <c r="E2">
-        <v>48.98448</v>
+        <v>167.05476</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2809.4179589270043</v>
+        <v>-1434.8107321419998</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09931419573023853</v>
       </c>
       <c r="D3">
-        <v>0.10834380566784668</v>
+        <v>825.1823572381986</v>
       </c>
       <c r="E3">
         <v>0.0</v>
